--- a/schedule-1-12-2023.xlsx
+++ b/schedule-1-12-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\sensem2\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071F19BC-7CAA-48A5-A867-C4603AF506E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DC2953-ED72-4AE3-A082-A111F2537999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
   <si>
     <t>Class number</t>
   </si>
@@ -197,37 +197,7 @@
     <t>Poster abstract peer review + project work day</t>
   </si>
   <si>
-    <t>NQ1</t>
-  </si>
-  <si>
-    <t>NQ2</t>
-  </si>
-  <si>
-    <t>NQ3</t>
-  </si>
-  <si>
-    <t>NQ4</t>
-  </si>
-  <si>
-    <t>NQ5</t>
-  </si>
-  <si>
-    <t>NQ6</t>
-  </si>
-  <si>
-    <t>NQ7</t>
-  </si>
-  <si>
     <t>Possible alumni visit</t>
-  </si>
-  <si>
-    <t>NQ8</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>[Iris: P3]</t>
   </si>
   <si>
     <t>IR1</t>
@@ -272,12 +242,6 @@
     <t>CP</t>
   </si>
   <si>
-    <t>FP1, FP2, IR4</t>
-  </si>
-  <si>
-    <t>discussion topic ranking (ungraded)</t>
-  </si>
-  <si>
     <t>TR1</t>
   </si>
   <si>
@@ -287,16 +251,49 @@
     <t>[civic engagement symposium]</t>
   </si>
   <si>
-    <t>P1 draft</t>
-  </si>
-  <si>
-    <t>P2 final</t>
-  </si>
-  <si>
-    <t>P2 draft + P1 final</t>
-  </si>
-  <si>
     <t>Poster peer review</t>
+  </si>
+  <si>
+    <t>NQP1</t>
+  </si>
+  <si>
+    <t>NQP2</t>
+  </si>
+  <si>
+    <t>NQP3</t>
+  </si>
+  <si>
+    <t>NQP4</t>
+  </si>
+  <si>
+    <t>NQP5</t>
+  </si>
+  <si>
+    <t>NQP6</t>
+  </si>
+  <si>
+    <t>NQP7</t>
+  </si>
+  <si>
+    <t>NQP8</t>
+  </si>
+  <si>
+    <t>PP1 draft</t>
+  </si>
+  <si>
+    <t>PP2 draft + PP1 final</t>
+  </si>
+  <si>
+    <t>PP2 final</t>
+  </si>
+  <si>
+    <t>[Iris: PP3]</t>
+  </si>
+  <si>
+    <t>PP3</t>
+  </si>
+  <si>
+    <t>FP, IR4</t>
   </si>
 </sst>
 </file>
@@ -875,8 +872,8 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,10 +946,10 @@
         <v>43</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -975,13 +972,13 @@
         <v>44</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="4" t="str">
         <f>B3</f>
@@ -997,9 +994,7 @@
       <c r="E5" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>80</v>
-      </c>
+      <c r="F5" s="17"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1019,13 +1014,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="G6" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1045,7 +1040,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G7" s="25"/>
     </row>
@@ -1069,7 +1064,7 @@
         <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="G8" s="24"/>
     </row>
@@ -1090,7 +1085,7 @@
         <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G9" s="8"/>
     </row>
@@ -1114,7 +1109,7 @@
         <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -1157,7 +1152,7 @@
         <v>49</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G12" s="8"/>
     </row>
@@ -1178,7 +1173,7 @@
         <v>52</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G13" s="8"/>
     </row>
@@ -1199,7 +1194,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
@@ -1221,7 +1216,7 @@
         <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G15" s="8"/>
     </row>
@@ -1277,10 +1272,10 @@
         <v>20</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G18" s="8"/>
     </row>
@@ -1320,10 +1315,10 @@
         <v>22</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G20" s="8"/>
     </row>
@@ -1344,7 +1339,7 @@
         <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G21" s="8"/>
     </row>
@@ -1368,7 +1363,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -1386,10 +1381,10 @@
         <v>25</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -1413,7 +1408,7 @@
         <v>52</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G24" s="8"/>
     </row>
@@ -1456,7 +1451,7 @@
         <v>52</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G26" s="8"/>
     </row>
@@ -1473,7 +1468,7 @@
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="7" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G27" s="8"/>
     </row>
@@ -1494,7 +1489,7 @@
         <v>52</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G28" s="8"/>
     </row>
@@ -1518,7 +1513,7 @@
         <v>53</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G29" s="8"/>
     </row>
@@ -1531,11 +1526,11 @@
         <v>45043</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="G30" s="8"/>
     </row>
@@ -1597,7 +1592,7 @@
         <v>52</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G33" s="8"/>
     </row>
@@ -1614,7 +1609,7 @@
         <v>35</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G34" s="27"/>
     </row>
